--- a/spss1.xlsx
+++ b/spss1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APTECH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spss\spss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3ADC75-7E0F-49B5-8E44-F59653003711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED9D757-2C55-433C-A79E-AE8FFF033B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{23B7933F-E488-48FF-A7B3-19DDE0D4AA8F}"/>
   </bookViews>
@@ -78,12 +78,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -124,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -133,6 +139,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +459,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +471,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
